--- a/biology/Botanique/Bolet_subtomenteux/Bolet_subtomenteux.xlsx
+++ b/biology/Botanique/Bolet_subtomenteux/Bolet_subtomenteux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xerocomus subtomentosus
 Xerocomus subtomentosus, le Bolet subtomenteux ou Bolet tomenteux, anciennement Boletus subtomentosus, est une espèce de champignons (Fungi) basidiomycètes du genre Xerocomus dans la famille des Boletaceae largement répandue dans les bois dans toute l'Eurasie, l'Amérique du Nord et l'Australie. Comestible moyen, il est caractérisé par sa chair rosâtre dans la partie inférieure du pied à la coupe et à son mycélium blanc.
@@ -512,19 +524,126 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomus subtomentosus (L.) Quél.[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus subtomentosus L.[1].
-Étymologie
-L'épithète spécifique subtomentosus signifie en latin "à poils fins", en référence à son chapeau tomenteux à subtomenteux[2].
-Phylogénie
-Xerocomus subtomentosus a été décrit pour la première fois en  1753 par le père de la taxonomie Carl Von Linné sous le nom de Boletus subtomentosus[3].
-La date de début de la taxonomie fongique avait été fixée au 1er janvier 1821, pour coïncider avec la date des travaux du "père de la mycologie", le naturaliste suédois Elias Magnus Fries, ce qui signifiait que le nom devait être sanctionné par Fries (indiqué dans le nom par deux-points) pour être considéré comme valide, les travaux de Linné étant antérieurs à cette date. Il s'écrivait donc Boletus subtomentosus L.:Fr. Cependant, une révision de 1987 du Code international de nomenclature botanique a fixé la date de début au 1er mai 1753, date de publication de l'ouvrage fondateur de Linné, le Species Plantarum[4]. Le nom ne nécessite donc plus la ratification de l'autorité de Fries.
-Le mycologue français Lucien Quélet avait classé un certain nombre d'espèces de Boletus dans le genre Xerocomus, l'espèce type étant Xerocomus subtomentosus. Le nom du genre est dérivé du grec ancien Xeros "sec" et kome "cheveux", et fait référence à la surface veloutée du chapeau[4]. Cette classification a été contestée, de nombreuses autorités ne reconnaissant pas le genre et continuant à utiliser Boletus subtomentosus ; toutefois, une analyse génétique publiée en 2013 a confirmé la distinction de cette espèce et de ses proches parents du groupe central de champignons du genre Boletus (sensu stricto)[5].
-Xerocomus subtomentosus et les espèces apparentées, y compris Phylloporus pelletieri, forment un clade connu officieusement sous le nom de "Clade Xerocomus" au sein d'un groupe plus large (appelé officieusement hypoboletus) dans le sous-ordre des Boletineae. D'autres clades au sein du groupe comprennent les clades Aureoboletus et Hemileccinum, ainsi que des espèces actuellement désignées comme Boletus (bien qu'elles ne soient pas étroitement apparentées à Boletus edulis) et trois espèces actuellement désignées comme Boletellus (bien qu'il soit peu probable qu'elles soient des parents proches de l'espèce type, Boletellus ananas). Le clade contenant le groupe hypoboletus et le clade Royoungia est frère du groupe anaxoboletus (contenant les genres Tylopilus sensu stricto, Strobilomyces, Xanthoconium, Porphyrellus, Xerocomellus, Boletus sensu stricto et le groupe des leccinoïdes (comprenant les genres Leccinellum, Leccinum, Spongiforma et l'espèce Retiboletus griseus)[6]. X. subtomentosus étant l'espèce type du genre, elle et ses proches parents restent des Xerocomus, les autres membres étant placés dans des genres différents.
-Synonymes
-Xerocomus subtomentosus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomus subtomentosus (L.) Quél..
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus subtomentosus L..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_subtomenteux</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_subtomenteux</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique subtomentosus signifie en latin "à poils fins", en référence à son chapeau tomenteux à subtomenteux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bolet_subtomenteux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_subtomenteux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xerocomus subtomentosus a été décrit pour la première fois en  1753 par le père de la taxonomie Carl Von Linné sous le nom de Boletus subtomentosus.
+La date de début de la taxonomie fongique avait été fixée au 1er janvier 1821, pour coïncider avec la date des travaux du "père de la mycologie", le naturaliste suédois Elias Magnus Fries, ce qui signifiait que le nom devait être sanctionné par Fries (indiqué dans le nom par deux-points) pour être considéré comme valide, les travaux de Linné étant antérieurs à cette date. Il s'écrivait donc Boletus subtomentosus L.:Fr. Cependant, une révision de 1987 du Code international de nomenclature botanique a fixé la date de début au 1er mai 1753, date de publication de l'ouvrage fondateur de Linné, le Species Plantarum. Le nom ne nécessite donc plus la ratification de l'autorité de Fries.
+Le mycologue français Lucien Quélet avait classé un certain nombre d'espèces de Boletus dans le genre Xerocomus, l'espèce type étant Xerocomus subtomentosus. Le nom du genre est dérivé du grec ancien Xeros "sec" et kome "cheveux", et fait référence à la surface veloutée du chapeau. Cette classification a été contestée, de nombreuses autorités ne reconnaissant pas le genre et continuant à utiliser Boletus subtomentosus ; toutefois, une analyse génétique publiée en 2013 a confirmé la distinction de cette espèce et de ses proches parents du groupe central de champignons du genre Boletus (sensu stricto).
+Xerocomus subtomentosus et les espèces apparentées, y compris Phylloporus pelletieri, forment un clade connu officieusement sous le nom de "Clade Xerocomus" au sein d'un groupe plus large (appelé officieusement hypoboletus) dans le sous-ordre des Boletineae. D'autres clades au sein du groupe comprennent les clades Aureoboletus et Hemileccinum, ainsi que des espèces actuellement désignées comme Boletus (bien qu'elles ne soient pas étroitement apparentées à Boletus edulis) et trois espèces actuellement désignées comme Boletellus (bien qu'il soit peu probable qu'elles soient des parents proches de l'espèce type, Boletellus ananas). Le clade contenant le groupe hypoboletus et le clade Royoungia est frère du groupe anaxoboletus (contenant les genres Tylopilus sensu stricto, Strobilomyces, Xanthoconium, Porphyrellus, Xerocomellus, Boletus sensu stricto et le groupe des leccinoïdes (comprenant les genres Leccinellum, Leccinum, Spongiforma et l'espèce Retiboletus griseus). X. subtomentosus étant l'espèce type du genre, elle et ses proches parents restent des Xerocomus, les autres membres étant placés dans des genres différents.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bolet_subtomenteux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_subtomenteux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xerocomus subtomentosus a pour synonymes :
 Boletus cinnamomeus Rostk.
 Boletus crassipes Schaeff.
 Boletus cupreus Schaeff.
@@ -563,48 +682,155 @@
 Xerocomus subtomentosus (L.) Fr.
 Xerocomus xanthus (E.-J.Gilbert) Contu
 Xerocomus xanthus (E.-J.Gilbert) Curreli
-Noms vulgaires et vernaculaires
-Bolet subtomenteux[7], Bolet tomenteux[7].
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Bolet_subtomenteux</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bolet_subtomenteux</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolet subtomenteux, Bolet tomenteux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bolet_subtomenteux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_subtomenteux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Xerocomus subtomentosus, le Bolet subtomenteux, sont les suivantes :
-Son chapeau mesure de 3 à 12 cm, il est feutré, très variable en couleur, pouvant aller du brun-rouge au jaune citron vif, en passant par le gris et le brun foncé[8]. Parfois le chapeau se fend, révélant une chair jaune et molle en dessous. La peau est très difficile à enlever.
-L'hyménophore présentes des tubes jaune vif à jaune d'or chez les jeunes, puis jaune brunâtre à jaune olivâtre terne, plus au moins bleuissants. Les pores sont concolores aux tubes[8].
-Son stipe mesure 3 à 10 cm x 0,5 à 3 cm, il est lisse, ou plus souvent avec des veines plus au mois en relief au sommet formant un pseudo-réseau. Il est de couleur jaune pâle à jaune vif, parfois avec des teintes rouges[8].
-La chair est jaune pâle ou blanchâtre, typiquement rosée ou rougeâtre dans la moitié inférieure du pied. Elle bleuit occasionnellement et faiblement au niveau du chapeau après quelques minutes. Sa saveur est douce et son odeur est faibles[8].
+Son chapeau mesure de 3 à 12 cm, il est feutré, très variable en couleur, pouvant aller du brun-rouge au jaune citron vif, en passant par le gris et le brun foncé. Parfois le chapeau se fend, révélant une chair jaune et molle en dessous. La peau est très difficile à enlever.
+L'hyménophore présentes des tubes jaune vif à jaune d'or chez les jeunes, puis jaune brunâtre à jaune olivâtre terne, plus au moins bleuissants. Les pores sont concolores aux tubes.
+Son stipe mesure 3 à 10 cm x 0,5 à 3 cm, il est lisse, ou plus souvent avec des veines plus au mois en relief au sommet formant un pseudo-réseau. Il est de couleur jaune pâle à jaune vif, parfois avec des teintes rouges.
+La chair est jaune pâle ou blanchâtre, typiquement rosée ou rougeâtre dans la moitié inférieure du pied. Elle bleuit occasionnellement et faiblement au niveau du chapeau après quelques minutes. Sa saveur est douce et son odeur est faibles.
 Le mycélium basal est de couleur blanche.
-Réactions chimiques
-Une goutte d'ammoniaque sur le chapeau produit instantanément une réaction acajou.
-Caractéristiques microscopiques
-Ses spores mesurent 11 à 15 μm x 4,5 à 5,5 μm, elles sont allongées-fusoïdes, lisses[7].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bolet_subtomenteux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_subtomenteux</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une goutte d'ammoniaque sur le chapeau produit instantanément une réaction acajou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bolet_subtomenteux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_subtomenteux</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 11 à 15 μm x 4,5 à 5,5 μm, elles sont allongées-fusoïdes, lisses.
 </t>
         </is>
       </c>
